--- a/branches/update-profile-slicing/StructureDefinition-covid19-assessment-vaccination.xlsx
+++ b/branches/update-profile-slicing/StructureDefinition-covid19-assessment-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T14:48:32+00:00</t>
+    <t>2022-09-09T09:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
